--- a/Databases/manual_QC.xlsx
+++ b/Databases/manual_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdp2019/Desktop/PGD-preop-metabolomics/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AE8CA4-DD18-224F-A472-96483AAA7314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6307B5E1-F44D-DD42-81FC-B678AAC2198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="25400" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1480" windowWidth="38400" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pared" sheetId="2" r:id="rId1"/>
@@ -5066,9 +5066,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9933B-54E3-1D43-BD07-5F8E6DDF0D45}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Databases/manual_QC.xlsx
+++ b/Databases/manual_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdp2019/Desktop/PGD-preop-metabolomics/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6307B5E1-F44D-DD42-81FC-B678AAC2198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E38BF9-7025-DC4D-BC6A-CB0259077A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1480" windowWidth="38400" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pared" sheetId="2" r:id="rId1"/>
@@ -5066,9 +5066,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9933B-54E3-1D43-BD07-5F8E6DDF0D45}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="E1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Databases/manual_QC.xlsx
+++ b/Databases/manual_QC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdp2019/Desktop/PGD-preop-metabolomics/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E38BF9-7025-DC4D-BC6A-CB0259077A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D080411-D987-CA4B-BBB3-7EAA4C2465D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pared" sheetId="2" r:id="rId1"/>
@@ -4450,7 +4450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4492,12 +4492,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4554,7 +4548,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5066,9 +5060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9933B-54E3-1D43-BD07-5F8E6DDF0D45}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Databases/manual_QC.xlsx
+++ b/Databases/manual_QC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdp2019/Desktop/PGD-preop-metabolomics/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D080411-D987-CA4B-BBB3-7EAA4C2465D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D5E33-D904-9344-9E35-D622A003CA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5060,9 +5060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9933B-54E3-1D43-BD07-5F8E6DDF0D45}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Databases/manual_QC.xlsx
+++ b/Databases/manual_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdp2019/Desktop/PGD-preop-metabolomics/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D5E33-D904-9344-9E35-D622A003CA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A4B17-5554-174B-ACB5-3A90CFE18BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pared" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">full_version!$A$1:$AK$161</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pared!$A$1:$O$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pared!$A$1:$P$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,12 +41,12 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={66416134-9E21-514E-84B4-3D5D29830C65}</author>
-    <author>tc={ABA9495A-F0DD-8F49-BCE0-7898DFC072F6}</author>
     <author>tc={E277FAA7-1B00-3B43-80BC-8D2CC48C857D}</author>
     <author>tc={1A245E21-FFE5-454B-BA33-018C62F8BC73}</author>
+    <author>tc={ABA9495A-F0DD-8F49-BCE0-7898DFC072F6}</author>
   </authors>
   <commentList>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{66416134-9E21-514E-84B4-3D5D29830C65}">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{66416134-9E21-514E-84B4-3D5D29830C65}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
     *Identified with authentic standard as M-H+HCOONa adduct</t>
       </text>
     </comment>
-    <comment ref="G21" authorId="1" shapeId="0" xr:uid="{ABA9495A-F0DD-8F49-BCE0-7898DFC072F6}">
+    <comment ref="G26" authorId="1" shapeId="0" xr:uid="{E277FAA7-1B00-3B43-80BC-8D2CC48C857D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +62,7 @@
     C18- also sig different but this higher</t>
       </text>
     </comment>
-    <comment ref="G40" authorId="2" shapeId="0" xr:uid="{E277FAA7-1B00-3B43-80BC-8D2CC48C857D}">
+    <comment ref="G31" authorId="2" shapeId="0" xr:uid="{1A245E21-FFE5-454B-BA33-018C62F8BC73}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
     C18- also sig different but this higher</t>
       </text>
     </comment>
-    <comment ref="G46" authorId="3" shapeId="0" xr:uid="{1A245E21-FFE5-454B-BA33-018C62F8BC73}">
+    <comment ref="G40" authorId="3" shapeId="0" xr:uid="{ABA9495A-F0DD-8F49-BCE0-7898DFC072F6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="1454">
   <si>
     <t>lib_conf</t>
   </si>
@@ -4398,9 +4398,6 @@
     <t>Allantoinᶜ</t>
   </si>
   <si>
-    <t>Estradiol-17αᶜ</t>
-  </si>
-  <si>
     <t>Arachidonoylcarnitineᶜ</t>
   </si>
   <si>
@@ -4410,40 +4407,64 @@
     <t>Lauroylcarnitineᶜ</t>
   </si>
   <si>
-    <t>Biliverdinⁱ</t>
-  </si>
-  <si>
-    <t>ⁱAnnotated isomers = Biliverdin-IX-δ and Biliverdin-IX-β (M-H adducts)</t>
-  </si>
-  <si>
-    <t>dTMPᶜⁱ</t>
-  </si>
-  <si>
-    <t>Acetyllysineⁱ</t>
-  </si>
-  <si>
-    <t>ⁱAnnotated isomer = 6-Acetamido-3-aminohexanoate (M-H adduct)</t>
-  </si>
-  <si>
-    <t>Normetanephrineᶜⁱ</t>
-  </si>
-  <si>
-    <t>Propionylcarnitineᶜⁱ</t>
-  </si>
-  <si>
-    <t>D-(+)-Glucosamineᶜⁱ</t>
-  </si>
-  <si>
-    <t>ⁱStandard library isomers = 1,3-Dihydro-(2H)-indol-2-oneᶜ (M+CH4O+H adduct)</t>
-  </si>
-  <si>
-    <t>ⁱStandard library isomers = 2'-Deoxyuridine 5'-monophosphate (M+Hac-H adduct)</t>
-  </si>
-  <si>
-    <t>ⁱStandard library isomers = 5-Aminopentanoic acid (M+H adduct)</t>
-  </si>
-  <si>
-    <t>ⁱStandard library isomers = D-Mannosamine (M+H adduct)</t>
+    <t>ᴵAnnotated isomer = 6-Acetamido-3-aminohexanoate (M-H adduct)</t>
+  </si>
+  <si>
+    <t>ᴵAnnotated isomers = Biliverdin-IX-δ and Biliverdin-IX-β (M-H adducts)</t>
+  </si>
+  <si>
+    <t>ᴵStandard library isomers = 1,3-Dihydro-(2H)-indol-2-oneᶜ (M+CH4O+H adduct)</t>
+  </si>
+  <si>
+    <t>ᴵStandard library isomers = 2'-Deoxyuridine 5'-monophosphate (M+Hac-H adduct)</t>
+  </si>
+  <si>
+    <t>ᴵStandard library isomers = 5-Aminopentanoic acid (M+H adduct)</t>
+  </si>
+  <si>
+    <t>ᴵStandard library isomers = D-Mannosamine (M+H adduct)</t>
+  </si>
+  <si>
+    <t>Acetyllysineᴵ</t>
+  </si>
+  <si>
+    <t>Biliverdinᴵ</t>
+  </si>
+  <si>
+    <t>Normetanephrineᶜᴵ</t>
+  </si>
+  <si>
+    <t>dTMPᶜᴵ</t>
+  </si>
+  <si>
+    <t>Propionylcarnitineᶜᴵ</t>
+  </si>
+  <si>
+    <t>D-(+)-Glucosamineᶜᴵ</t>
+  </si>
+  <si>
+    <t>17α-Estradiolᶜ</t>
+  </si>
+  <si>
+    <t>5-HmdCDP</t>
+  </si>
+  <si>
+    <t>abbrev</t>
+  </si>
+  <si>
+    <t>3β,7α-DiOH-5-cholestenoate</t>
+  </si>
+  <si>
+    <t>3β-Hydroxypregn-5-en-20-one sulfate</t>
+  </si>
+  <si>
+    <t>3β,7α-Dihydroxy-5-cholestenoate</t>
+  </si>
+  <si>
+    <t>β-Methylphenylpyruvate</t>
+  </si>
+  <si>
+    <t>3-Carboxy-1-hydroxypropylthiamine diphosphate</t>
   </si>
 </sst>
 </file>
@@ -4548,7 +4569,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5030,16 +5051,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G8" dT="2025-10-13T16:10:55.01" personId="{A3D5FBBA-74FF-8C4F-A767-11AE4BF138FD}" id="{66416134-9E21-514E-84B4-3D5D29830C65}">
+  <threadedComment ref="G21" dT="2025-10-13T16:10:55.01" personId="{A3D5FBBA-74FF-8C4F-A767-11AE4BF138FD}" id="{66416134-9E21-514E-84B4-3D5D29830C65}">
     <text>*Identified with authentic standard as M-H+HCOONa adduct</text>
   </threadedComment>
-  <threadedComment ref="G21" dT="2025-10-10T21:51:00.64" personId="{A3D5FBBA-74FF-8C4F-A767-11AE4BF138FD}" id="{ABA9495A-F0DD-8F49-BCE0-7898DFC072F6}">
+  <threadedComment ref="G26" dT="2025-10-10T21:48:53.41" personId="{A3D5FBBA-74FF-8C4F-A767-11AE4BF138FD}" id="{E277FAA7-1B00-3B43-80BC-8D2CC48C857D}">
     <text>C18- also sig different but this higher</text>
   </threadedComment>
-  <threadedComment ref="G40" dT="2025-10-10T21:48:53.41" personId="{A3D5FBBA-74FF-8C4F-A767-11AE4BF138FD}" id="{E277FAA7-1B00-3B43-80BC-8D2CC48C857D}">
+  <threadedComment ref="G31" dT="2025-10-10T21:49:44.46" personId="{A3D5FBBA-74FF-8C4F-A767-11AE4BF138FD}" id="{1A245E21-FFE5-454B-BA33-018C62F8BC73}">
     <text>C18- also sig different but this higher</text>
   </threadedComment>
-  <threadedComment ref="G46" dT="2025-10-10T21:49:44.46" personId="{A3D5FBBA-74FF-8C4F-A767-11AE4BF138FD}" id="{1A245E21-FFE5-454B-BA33-018C62F8BC73}">
+  <threadedComment ref="G40" dT="2025-10-10T21:51:00.64" personId="{A3D5FBBA-74FF-8C4F-A767-11AE4BF138FD}" id="{ABA9495A-F0DD-8F49-BCE0-7898DFC072F6}">
     <text>C18- also sig different but this higher</text>
   </threadedComment>
 </ThreadedComments>
@@ -5058,11 +5079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9933B-54E3-1D43-BD07-5F8E6DDF0D45}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5074,17 +5095,18 @@
     <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5107,2474 +5129,2554 @@
         <v>1413</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>859</v>
+        <v>763</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="3">
-        <v>2.1386309930186621E-2</v>
+        <v>1.8242534831303951E-2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3" t="s">
-        <v>1439</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>770</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3">
-        <v>187.1087</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
-        <v>127</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="3">
-        <v>188.11609999999999</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>861</v>
+        <v>182.98859999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>293</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="N2" s="3">
+        <v>148.01939999999999</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>442</v>
+        <v>1331</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="3">
-        <v>5.3557198553963042E-3</v>
+        <v>4.9810445954234527E-2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="3" t="s">
-        <v>1436</v>
-      </c>
+        <v>1333</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>1435</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>1338</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <v>581.24130000000002</v>
-      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3">
-        <v>160</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="3">
-        <v>582.24779999999998</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>444</v>
+        <v>140.08179999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>288</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="3">
+        <v>139.0746</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>31</v>
+        <v>494</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>956</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3">
-        <v>4.2928983081415593E-2</v>
+        <v>2.7028098855567551E-2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="3" t="s">
-        <v>1443</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="H4" s="3">
-        <v>166.08621199999999</v>
-      </c>
-      <c r="I4" s="3">
-        <v>135.40007399999999</v>
-      </c>
+        <v>962</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="K4" s="3">
+        <v>225.01689999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>58</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="N4" s="3">
+        <v>190.04769999999999</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.4134521397966121E-2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>657.15129999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>174</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="3">
+        <v>612.15200000000004</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.8441772662208911E-2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H5" s="3">
-        <v>367.054801</v>
-      </c>
-      <c r="I5" s="3">
-        <v>49.878794999999997</v>
-      </c>
-      <c r="J5" s="3">
-        <v>367.05599999999998</v>
-      </c>
-      <c r="K5" s="3">
-        <v>48</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" s="3">
-        <v>322.0566</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="3">
-        <v>2.582997493302373E-2</v>
+        <v>1.8441772662208911E-2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1418</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H6" s="3">
-        <v>118.086257</v>
+        <v>1443</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="3">
-        <v>161.9</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+        <v>367.054801</v>
+      </c>
+      <c r="J6" s="3">
+        <v>49.878794999999997</v>
+      </c>
+      <c r="K6" s="3">
+        <v>367.05599999999998</v>
+      </c>
+      <c r="L6" s="3">
+        <v>48</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="3">
+        <v>322.0566</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>1222</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3">
-        <v>3.4341118664780519E-2</v>
+        <v>3.8993362929226019E-2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3" t="s">
-        <v>1446</v>
-      </c>
+        <v>1225</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="H7" s="3">
-        <v>180.08667600000001</v>
-      </c>
-      <c r="I7" s="3">
-        <v>196.068432</v>
-      </c>
-      <c r="J7" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>171.00559999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>287</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3">
+        <v>169.99799999999999</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>928</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="3">
-        <v>1.1377581643596561E-5</v>
+        <v>2.5683978081828179E-2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>931</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1453</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>1417</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>938</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3">
-        <v>129.0558</v>
-      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="3">
-        <v>59</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="3">
-        <v>130.06299999999999</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>153</v>
+        <v>561.03710000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>172</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="N8" s="3">
+        <v>526.06939999999997</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>31</v>
+        <v>930</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>160</v>
+        <v>921</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C9" s="3">
-        <v>2.902916919542602E-5</v>
+        <v>2.4895837286306229E-2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>164</v>
+        <v>924</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>922</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3">
-        <v>304.0643</v>
-      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="3">
-        <v>254</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M9" s="3">
-        <v>237.0849</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>163</v>
+        <v>373.25889999999998</v>
+      </c>
+      <c r="L9" s="3">
+        <v>199</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" s="3">
+        <v>314.2457</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>34</v>
+        <v>923</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="3">
-        <v>3.1673565895759431E-5</v>
+        <v>5.6695382774089745E-4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <v>526.35119999999995</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3">
-        <v>157</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="3">
-        <v>481.35320000000002</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>171</v>
+        <v>163.0866</v>
+      </c>
+      <c r="L10" s="3">
+        <v>91</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="3">
+        <v>162.07929999999999</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="3">
-        <v>3.4100923828765439E-4</v>
+        <v>8.0158802865841917E-4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>267</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <v>214.99610000000001</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="3">
-        <v>53</v>
-      </c>
-      <c r="L11" s="3" t="s">
+        <v>219.0772</v>
+      </c>
+      <c r="L11" s="3">
+        <v>59</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="3">
-        <v>216.0035</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>206</v>
+      <c r="N11" s="3">
+        <v>220.0848</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>34</v>
+        <v>266</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>214</v>
+        <v>803</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C12" s="3">
-        <v>3.7564537356900052E-4</v>
+        <v>1.9272011544118631E-2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>806</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>804</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>1447</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <v>86.096500000000006</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="3">
-        <v>156</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="3">
-        <v>85.089100000000002</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>216</v>
+        <v>484.01429999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>154</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N12" s="3">
+        <v>417.03379999999999</v>
       </c>
       <c r="O12" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>233</v>
+        <v>741</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="3">
-        <v>4.6238119850822368E-4</v>
+        <v>1.765897688417949E-2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>236</v>
+        <v>744</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>234</v>
+        <v>1451</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>1449</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>245.04220000000001</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3">
-        <v>54</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M13" s="3">
-        <v>178.06299999999999</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>235</v>
+        <v>431.31630000000001</v>
+      </c>
+      <c r="L13" s="3">
+        <v>182</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="3">
+        <v>432.32400000000001</v>
       </c>
       <c r="O13" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>242</v>
+        <v>571</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C14" s="3">
-        <v>5.6695382774089745E-4</v>
+        <v>1.0326765194174701E-2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>245</v>
+        <v>575</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>243</v>
+        <v>572</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>582</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>163.0866</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="3">
-        <v>91</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="3">
-        <v>162.07929999999999</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>244</v>
+        <v>419.32799999999997</v>
+      </c>
+      <c r="L14" s="3">
+        <v>233</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="N14" s="3">
+        <v>384.3603</v>
       </c>
       <c r="O14" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>264</v>
+        <v>651</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C15" s="3">
-        <v>8.0158802865841917E-4</v>
+        <v>1.390386473743265E-2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>267</v>
+        <v>654</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>265</v>
+        <v>652</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>658</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3">
-        <v>219.0772</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="3">
-        <v>59</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="3">
-        <v>220.0848</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>266</v>
+        <v>289.2373</v>
+      </c>
+      <c r="L15" s="3">
+        <v>49</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="3">
+        <v>288.23009999999999</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>31</v>
+        <v>653</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="3">
-        <v>1.24007345202613E-3</v>
+        <v>3.1673565895759431E-5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3">
-        <v>226.01300000000001</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3">
-        <v>201</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="3">
-        <v>227.01949999999999</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>278</v>
+        <v>526.35119999999995</v>
+      </c>
+      <c r="L16" s="3">
+        <v>157</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="3">
+        <v>481.35320000000002</v>
       </c>
       <c r="O16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>286</v>
+        <v>1204</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C17" s="3">
-        <v>1.8425622551489071E-3</v>
+        <v>3.856739978499979E-2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>1207</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1205</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>287</v>
+        <v>1212</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <v>198.11250000000001</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3">
-        <v>144</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="3">
-        <v>197.1052</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>288</v>
+        <v>277.21690000000001</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="3">
+        <v>278.22460000000001</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>34</v>
+        <v>1206</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C18" s="3">
-        <v>1.9649236574326308E-3</v>
+        <v>4.6238119850822368E-4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="H18" s="3">
-        <v>174.11247599999999</v>
-      </c>
-      <c r="I18" s="3">
-        <v>59.192346000000001</v>
-      </c>
-      <c r="J18" s="3">
-        <v>174.11250000000001</v>
-      </c>
+        <v>1452</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3">
-        <v>70</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="3">
-        <v>173.1052</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>47</v>
+        <v>245.04220000000001</v>
+      </c>
+      <c r="L18" s="3">
+        <v>54</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="3">
+        <v>178.06299999999999</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>31</v>
+        <v>235</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>294</v>
+        <v>893</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C19" s="3">
-        <v>2.2595076928796031E-3</v>
+        <v>2.4021729044917579E-2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3">
-        <v>87.0441</v>
-      </c>
+      <c r="J19" s="3"/>
       <c r="K19" s="3">
-        <v>138</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="M19" s="3">
-        <v>103.0633</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>297</v>
+        <v>161.01859999999999</v>
+      </c>
+      <c r="L19" s="3">
+        <v>79</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="N19" s="3">
+        <v>116.04730000000001</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3">
-        <v>2.4545626354486529E-3</v>
+        <v>1.425558172904489E-2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>313</v>
+        <v>1427</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>197.04316399999999</v>
+      </c>
       <c r="J20" s="3">
-        <v>172.0727</v>
-      </c>
-      <c r="K20" s="3">
-        <v>122</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="3">
-        <v>173.08</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>60.958067999999997</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C21" s="3">
-        <v>2.5053635807079939E-3</v>
+        <v>1.1377581643596561E-5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>328</v>
+        <v>1417</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3">
-        <v>317.21120000000002</v>
-      </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="3">
-        <v>52</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" s="3">
-        <v>316.2038</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>329</v>
+        <v>129.0558</v>
+      </c>
+      <c r="L21" s="3">
+        <v>59</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="3">
+        <v>130.06299999999999</v>
       </c>
       <c r="O21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C22" s="3">
-        <v>4.5247468248718094E-3</v>
+        <v>2.4545626354486529E-3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>308</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>391</v>
+        <v>313</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3">
-        <v>180.00659999999999</v>
-      </c>
+      <c r="J22" s="3"/>
       <c r="K22" s="3">
-        <v>171</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="M22" s="3">
-        <v>135.03540000000001</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>386</v>
+        <v>172.0727</v>
+      </c>
+      <c r="L22" s="3">
+        <v>122</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="3">
+        <v>173.08</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>31</v>
+        <v>307</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>432</v>
+        <v>1145</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C23" s="3">
-        <v>5.3212404185861237E-3</v>
+        <v>3.6135338935996332E-2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>435</v>
+        <v>1147</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>440</v>
+        <v>1151</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3">
-        <v>115.039</v>
-      </c>
+      <c r="J23" s="3"/>
       <c r="K23" s="3">
-        <v>276</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="3">
-        <v>150.05279999999999</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>434</v>
+        <v>184.05950000000001</v>
+      </c>
+      <c r="L23" s="3">
+        <v>58</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" s="3">
+        <v>117.07899999999999</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>466</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3">
-        <v>5.4875389457743704E-3</v>
+        <v>3.1568181811030632E-2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>469</v>
+        <v>1345</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>467</v>
+        <v>1428</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>311.04966400000001</v>
+      </c>
       <c r="J24" s="3">
-        <v>191.11789999999999</v>
-      </c>
-      <c r="K24" s="3">
-        <v>88</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="3">
-        <v>190.11060000000001</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>61.103754000000002</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>1177</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C25" s="3">
-        <v>5.7262137374937813E-3</v>
+        <v>3.7694706055845982E-2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1342</v>
+        <v>1180</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="H25" s="3">
-        <v>112.985664</v>
-      </c>
-      <c r="I25" s="3">
-        <v>52.425713999999999</v>
-      </c>
+        <v>1178</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="K25" s="3">
+        <v>135.04849999999999</v>
+      </c>
+      <c r="L25" s="3">
+        <v>49</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" s="3">
+        <v>76.035200000000003</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>492</v>
+        <v>783</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C26" s="3">
-        <v>6.283398837797465E-3</v>
+        <v>1.8864555948143659E-2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>495</v>
+        <v>786</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>500</v>
+        <v>784</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3">
-        <v>140.08189999999999</v>
-      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3">
-        <v>148</v>
-      </c>
-      <c r="L26" s="3" t="s">
+        <v>126.02200000000001</v>
+      </c>
+      <c r="L26" s="3">
+        <v>172</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="3">
-        <v>139.0746</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>494</v>
+      <c r="N26" s="3">
+        <v>125.0147</v>
       </c>
       <c r="O26" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3">
-        <v>7.0843946475875972E-3</v>
+        <v>3.7382207172511978E-2</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H27" s="3">
-        <v>115.04006800000001</v>
-      </c>
+      <c r="G27" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="3">
-        <v>59.6</v>
-      </c>
-      <c r="J27" s="3"/>
+        <v>118.02931</v>
+      </c>
+      <c r="J27" s="3">
+        <v>150.46866</v>
+      </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>1347</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>532</v>
+        <v>432</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C28" s="3">
-        <v>7.2763674414196271E-3</v>
+        <v>5.3212404185861237E-3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>533</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>541</v>
+        <v>440</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3">
-        <v>188.09129999999999</v>
-      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="3">
-        <v>76</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="3">
-        <v>187.08449999999999</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>534</v>
+        <v>115.039</v>
+      </c>
+      <c r="L28" s="3">
+        <v>276</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="3">
+        <v>150.05279999999999</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>34</v>
+        <v>434</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>1307</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C29" s="3">
-        <v>8.1456468154923641E-3</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>4.9091479923165357E-2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1310</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H29" s="3">
-        <v>114.054912</v>
-      </c>
-      <c r="I29" s="3">
-        <v>79.372296000000006</v>
-      </c>
+        <v>1308</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="K29" s="3">
+        <v>227.1035</v>
+      </c>
+      <c r="L29" s="3">
+        <v>55</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29" s="3">
+        <v>168.0899</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>571</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3">
-        <v>1.0326765194174701E-2</v>
+        <v>2.582997493302373E-2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>1357</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3" t="s">
+        <v>1438</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>582</v>
+        <v>1444</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3">
+        <v>118.086257</v>
+      </c>
       <c r="J30" s="3">
-        <v>419.32799999999997</v>
-      </c>
-      <c r="K30" s="3">
-        <v>233</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="M30" s="3">
-        <v>384.3603</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>161.9</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>630</v>
+        <v>904</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C31" s="3">
-        <v>1.3273464837514241E-2</v>
+        <v>2.4155266882415601E-2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>633</v>
+        <v>907</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>631</v>
+        <v>911</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3">
-        <v>481.28030000000001</v>
-      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="3">
-        <v>152</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M31" s="3">
-        <v>422.26679999999999</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>632</v>
+        <v>116.0706</v>
+      </c>
+      <c r="L31" s="3">
+        <v>172</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="3">
+        <v>115.0633</v>
       </c>
       <c r="O31" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C32" s="3">
-        <v>1.390386473743265E-2</v>
+        <v>1.518221888925231E-2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>652</v>
+        <v>1450</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>658</v>
+        <v>709</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3">
-        <v>289.2373</v>
-      </c>
+      <c r="J32" s="3"/>
       <c r="K32" s="3">
-        <v>49</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" s="3">
-        <v>288.23009999999999</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>653</v>
+        <v>395.19</v>
+      </c>
+      <c r="L32" s="3">
+        <v>154</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="3">
+        <v>396.197</v>
       </c>
       <c r="O32" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C33" s="3">
-        <v>1.425558172904489E-2</v>
+        <v>3.7564537356900052E-4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>1427</v>
-      </c>
-      <c r="H33" s="3">
-        <v>197.04316399999999</v>
-      </c>
-      <c r="I33" s="3">
-        <v>60.958067999999997</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="K33" s="3">
+        <v>86.096500000000006</v>
+      </c>
+      <c r="L33" s="3">
+        <v>156</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="3">
+        <v>85.089100000000002</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>700</v>
+        <v>1272</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C34" s="3">
-        <v>1.518221888925231E-2</v>
+        <v>4.2918452172428713E-2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>701</v>
-      </c>
+        <v>1275</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>709</v>
+        <v>1273</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="3">
-        <v>395.19</v>
-      </c>
+      <c r="J34" s="3"/>
       <c r="K34" s="3">
-        <v>154</v>
-      </c>
-      <c r="L34" s="3" t="s">
+        <v>367.22449999999998</v>
+      </c>
+      <c r="L34" s="3">
+        <v>249</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="3">
-        <v>396.197</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>702</v>
+      <c r="N34" s="3">
+        <v>368.23110000000003</v>
       </c>
       <c r="O34" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>722</v>
+        <v>128</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3">
-        <v>1.6822931611723671E-2</v>
+        <v>4.2928983081415593E-2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+        <v>1363</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3" t="s">
+        <v>1436</v>
+      </c>
       <c r="G35" s="3" t="s">
-        <v>723</v>
+        <v>1442</v>
       </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3">
+        <v>166.08621199999999</v>
+      </c>
       <c r="J35" s="3">
-        <v>130.0652</v>
-      </c>
-      <c r="K35" s="3">
-        <v>155</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="M35" s="3">
-        <v>146.08439999999999</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>135.40007399999999</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3">
-        <v>1.687895765311186E-2</v>
+        <v>4.691419051751626E-2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>732</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>739</v>
+        <v>1422</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3">
-        <v>173.02180000000001</v>
-      </c>
+      <c r="J36" s="3"/>
       <c r="K36" s="3">
-        <v>289</v>
-      </c>
-      <c r="L36" s="3" t="s">
+        <v>124.039276</v>
+      </c>
+      <c r="L36" s="3">
+        <v>66.034661999999997</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M36" s="3">
-        <v>172.0137</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>741</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3">
-        <v>1.765897688417949E-2</v>
+        <v>1.9649236574326308E-3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>742</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>750</v>
+        <v>1425</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3">
+        <v>174.11247599999999</v>
+      </c>
       <c r="J37" s="3">
-        <v>431.31630000000001</v>
+        <v>59.192346000000001</v>
       </c>
       <c r="K37" s="3">
-        <v>182</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M37" s="3">
-        <v>432.32400000000001</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>743</v>
+        <v>174.11250000000001</v>
+      </c>
+      <c r="L37" s="3">
+        <v>70</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" s="3">
+        <v>173.1052</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>753</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3">
-        <v>1.783492056428105E-2</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>756</v>
-      </c>
+        <v>8.1456468154923641E-3</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>754</v>
+        <v>1424</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3">
+        <v>114.054912</v>
+      </c>
       <c r="J38" s="3">
-        <v>295.0659</v>
-      </c>
-      <c r="K38" s="3">
-        <v>112</v>
-      </c>
-      <c r="L38" s="3" t="s">
+        <v>79.372296000000006</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M38" s="3">
-        <v>312.07060000000001</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>763</v>
+        <v>160</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C39" s="3">
-        <v>1.8242534831303951E-2</v>
+        <v>2.902916919542602E-5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>764</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>770</v>
+        <v>1419</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3">
-        <v>182.98859999999999</v>
-      </c>
+      <c r="J39" s="3"/>
       <c r="K39" s="3">
-        <v>293</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="M39" s="3">
-        <v>148.01939999999999</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>765</v>
+        <v>304.0643</v>
+      </c>
+      <c r="L39" s="3">
+        <v>254</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N39" s="3">
+        <v>237.0849</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>31</v>
+        <v>163</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>783</v>
+        <v>327</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C40" s="3">
-        <v>1.8864555948143659E-2</v>
+        <v>2.5053635807079939E-3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>786</v>
+        <v>330</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>784</v>
+        <v>328</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3">
-        <v>126.02200000000001</v>
-      </c>
+      <c r="J40" s="3"/>
       <c r="K40" s="3">
-        <v>172</v>
-      </c>
-      <c r="L40" s="3" t="s">
+        <v>317.21120000000002</v>
+      </c>
+      <c r="L40" s="3">
+        <v>52</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M40" s="3">
-        <v>125.0147</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>785</v>
+      <c r="N40" s="3">
+        <v>316.2038</v>
       </c>
       <c r="O40" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="P40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>793</v>
+        <v>630</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C41" s="3">
-        <v>1.8982229776561159E-2</v>
+        <v>1.3273464837514241E-2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>794</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>801</v>
+        <v>631</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3">
-        <v>433.20159999999998</v>
-      </c>
+      <c r="J41" s="3"/>
       <c r="K41" s="3">
-        <v>199</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M41" s="3">
-        <v>434.21050000000002</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>795</v>
+        <v>481.28030000000001</v>
+      </c>
+      <c r="L41" s="3">
+        <v>152</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N41" s="3">
+        <v>422.26679999999999</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>34</v>
+        <v>632</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>803</v>
+        <v>59</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C42" s="3">
-        <v>1.9272011544118631E-2</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>804</v>
-      </c>
+        <v>7.0843946475875972E-3</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>811</v>
+        <v>1423</v>
       </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="I42" s="3">
+        <v>115.04006800000001</v>
+      </c>
       <c r="J42" s="3">
-        <v>484.01429999999999</v>
-      </c>
-      <c r="K42" s="3">
-        <v>154</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M42" s="3">
-        <v>417.03379999999999</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>59.6</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>813</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="C43" s="3">
-        <v>1.9821497736864251E-2</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>816</v>
-      </c>
+        <v>4.8372413029067307E-2</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="G43" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="3">
+        <v>344.27957600000002</v>
+      </c>
       <c r="J43" s="3">
-        <v>153.05459999999999</v>
-      </c>
-      <c r="K43" s="3">
-        <v>277</v>
-      </c>
-      <c r="L43" s="3" t="s">
+        <v>57.995856000000003</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M43" s="3">
-        <v>152.04730000000001</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>893</v>
+        <v>731</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C44" s="3">
-        <v>2.4021729044917579E-2</v>
+        <v>1.687895765311186E-2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>734</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>732</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>70</v>
+        <v>739</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="3">
-        <v>161.01859999999999</v>
-      </c>
+      <c r="J44" s="3"/>
       <c r="K44" s="3">
-        <v>79</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="M44" s="3">
-        <v>116.04730000000001</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>62</v>
+        <v>173.02180000000001</v>
+      </c>
+      <c r="L44" s="3">
+        <v>289</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" s="3">
+        <v>172.0137</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>31</v>
+        <v>733</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>894</v>
+        <v>1232</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C45" s="3">
-        <v>2.4134521397966121E-2</v>
+        <v>3.9735637974157537E-2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>895</v>
-      </c>
+        <v>1235</v>
+      </c>
+      <c r="E45" s="8"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>902</v>
+        <v>1239</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3">
-        <v>657.15129999999999</v>
-      </c>
+      <c r="J45" s="3"/>
       <c r="K45" s="3">
-        <v>174</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M45" s="3">
-        <v>612.15200000000004</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>896</v>
+        <v>198.07480000000001</v>
+      </c>
+      <c r="L45" s="3">
+        <v>58</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N45" s="3">
+        <v>131.09460000000001</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>31</v>
+        <v>1234</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>904</v>
+        <v>753</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C46" s="3">
-        <v>2.4155266882415601E-2</v>
+        <v>1.783492056428105E-2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>907</v>
+        <v>756</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>911</v>
+        <v>754</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="3">
-        <v>116.0706</v>
-      </c>
+      <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <v>172</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M46" s="3">
-        <v>115.0633</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>906</v>
+        <v>295.0659</v>
+      </c>
+      <c r="L46" s="3">
+        <v>112</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N46" s="3">
+        <v>312.07060000000001</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>31</v>
+        <v>755</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>912</v>
+        <v>1320</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C47" s="3">
-        <v>2.4381018990672219E-2</v>
+        <v>4.9276037183637329E-2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>1323</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>1321</v>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>919</v>
+        <v>1329</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="3">
-        <v>327.28980000000001</v>
-      </c>
+      <c r="J47" s="3"/>
       <c r="K47" s="3">
-        <v>205</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M47" s="3">
-        <v>328.29770000000002</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>914</v>
+        <v>294.09070000000003</v>
+      </c>
+      <c r="L47" s="3">
+        <v>52</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N47" s="3">
+        <v>293.08339999999998</v>
       </c>
       <c r="O47" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>921</v>
+        <v>383</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C48" s="3">
-        <v>2.4895837286306229E-2</v>
+        <v>4.5247468248718094E-3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>924</v>
+        <v>387</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>922</v>
+        <v>391</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3">
-        <v>373.25889999999998</v>
-      </c>
+      <c r="J48" s="3"/>
       <c r="K48" s="3">
-        <v>199</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M48" s="3">
-        <v>314.2457</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>923</v>
+        <v>180.00659999999999</v>
+      </c>
+      <c r="L48" s="3">
+        <v>171</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="N48" s="3">
+        <v>135.03540000000001</v>
       </c>
       <c r="O48" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>928</v>
+        <v>492</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C49" s="3">
-        <v>2.5683978081828179E-2</v>
+        <v>6.283398837797465E-3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>929</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="3">
-        <v>561.03710000000001</v>
-      </c>
+      <c r="J49" s="3"/>
       <c r="K49" s="3">
-        <v>172</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="M49" s="3">
-        <v>526.06939999999997</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>930</v>
+        <v>140.08189999999999</v>
+      </c>
+      <c r="L49" s="3">
+        <v>148</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N49" s="3">
+        <v>139.0746</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>34</v>
+        <v>494</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>941</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="C50" s="3">
-        <v>2.6391315189549149E-2</v>
+        <v>2.9091232616553449E-2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>944</v>
+        <v>1344</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>942</v>
+        <v>1429</v>
       </c>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3">
+        <v>112.086876</v>
+      </c>
       <c r="J50" s="3">
-        <v>303.23239999999998</v>
-      </c>
-      <c r="K50" s="3">
-        <v>205</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M50" s="3">
-        <v>304.24020000000002</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>200.43625800000001</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>949</v>
+        <v>276</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C51" s="3">
-        <v>2.6422931704385061E-2</v>
+        <v>1.24007345202613E-3</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>952</v>
+        <v>279</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>950</v>
+        <v>284</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="3">
-        <v>585.27110000000005</v>
-      </c>
+      <c r="J51" s="3"/>
       <c r="K51" s="3">
-        <v>74</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M51" s="3">
-        <v>584.26350000000002</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>951</v>
+        <v>226.01300000000001</v>
+      </c>
+      <c r="L51" s="3">
+        <v>201</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N51" s="3">
+        <v>227.01949999999999</v>
       </c>
       <c r="O51" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="P51" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>956</v>
+        <v>1291</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C52" s="3">
-        <v>2.7028098855567551E-2</v>
+        <v>4.4157548221427957E-2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>957</v>
-      </c>
+        <v>1293</v>
+      </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>962</v>
+        <v>1297</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3">
-        <v>225.01689999999999</v>
-      </c>
+      <c r="J52" s="3"/>
       <c r="K52" s="3">
+        <v>146.04589999999999</v>
+      </c>
+      <c r="L52" s="3">
         <v>58</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="M52" s="3">
-        <v>190.04769999999999</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>958</v>
+      <c r="M52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N52" s="3">
+        <v>147.0532</v>
       </c>
       <c r="O52" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="3">
-        <v>2.9091232616553449E-2</v>
+        <v>5.7262137374937813E-3</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>1429</v>
-      </c>
-      <c r="H53" s="3">
-        <v>112.086876</v>
-      </c>
+        <v>1426</v>
+      </c>
+      <c r="H53" s="3"/>
       <c r="I53" s="3">
-        <v>200.43625800000001</v>
-      </c>
-      <c r="J53" s="3"/>
+        <v>112.985664</v>
+      </c>
+      <c r="J53" s="3">
+        <v>52.425713999999999</v>
+      </c>
       <c r="K53" s="3"/>
-      <c r="L53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C54" s="3">
-        <v>2.9310483047734669E-2</v>
+        <v>3.2310529052660013E-2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1003</v>
+        <v>1051</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>1001</v>
+        <v>1049</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3">
-        <v>182.00960000000001</v>
-      </c>
+      <c r="J54" s="3"/>
       <c r="K54" s="3">
-        <v>140</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M54" s="3">
-        <v>183.01679999999999</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>1002</v>
+        <v>89.024500000000003</v>
+      </c>
+      <c r="L54" s="3">
+        <v>180</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N54" s="3">
+        <v>30.0106</v>
       </c>
       <c r="O54" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="P54" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>37</v>
+        <v>793</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3">
-        <v>3.1568181811030632E-2</v>
+        <v>1.8982229776561159E-2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>796</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>1428</v>
-      </c>
-      <c r="H55" s="3">
-        <v>311.04966400000001</v>
-      </c>
-      <c r="I55" s="3">
-        <v>61.103754000000002</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
+      <c r="K55" s="3">
+        <v>433.20159999999998</v>
+      </c>
+      <c r="L55" s="3">
+        <v>199</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N55" s="3">
+        <v>434.21050000000002</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>1048</v>
+        <v>286</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C56" s="3">
-        <v>3.2310529052660013E-2</v>
+        <v>1.8425622551489071E-3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1051</v>
+        <v>289</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>1049</v>
+        <v>287</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3">
-        <v>89.024500000000003</v>
-      </c>
+      <c r="J56" s="3"/>
       <c r="K56" s="3">
-        <v>180</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M56" s="3">
-        <v>30.0106</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>1050</v>
+        <v>198.11250000000001</v>
+      </c>
+      <c r="L56" s="3">
+        <v>144</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N56" s="3">
+        <v>197.1052</v>
       </c>
       <c r="O56" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="P56" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>1087</v>
+        <v>108</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3.4341118664780519E-2</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3">
+        <v>180.08667600000001</v>
+      </c>
+      <c r="J57" s="3">
+        <v>196.068432</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="3">
-        <v>3.3997438877621723E-2</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3">
-        <v>101.0245</v>
-      </c>
-      <c r="K57" s="3">
-        <v>134</v>
-      </c>
-      <c r="L57" s="3" t="s">
+      <c r="C58" s="3">
+        <v>5.3557198553963042E-3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
+        <v>581.24130000000002</v>
+      </c>
+      <c r="L58" s="3">
+        <v>160</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M57" s="3">
-        <v>102.0317</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>34</v>
+      <c r="N58" s="3">
+        <v>582.24779999999998</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C59" s="3">
         <v>3.4663097084018907E-2</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H58" s="3">
-        <v>448.34213499999998</v>
-      </c>
-      <c r="I58" s="3">
-        <v>62.4</v>
-      </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="3">
-        <v>3.510336077675618E-2</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>1117</v>
-      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>1121</v>
+        <v>1431</v>
       </c>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3">
+        <v>448.34213499999998</v>
+      </c>
       <c r="J59" s="3">
-        <v>146.04589999999999</v>
-      </c>
-      <c r="K59" s="3">
-        <v>184</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M59" s="3">
-        <v>147.0532</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>62.4</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>1137</v>
+        <v>941</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C60" s="3">
-        <v>3.5757111958394462E-2</v>
+        <v>2.6391315189549149E-2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1140</v>
+        <v>944</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>1138</v>
+        <v>942</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3">
-        <v>130.0975</v>
-      </c>
+      <c r="J60" s="3"/>
       <c r="K60" s="3">
-        <v>139</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M60" s="3">
-        <v>129.09020000000001</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>1139</v>
+        <v>303.23239999999998</v>
+      </c>
+      <c r="L60" s="3">
+        <v>205</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N60" s="3">
+        <v>304.24020000000002</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>31</v>
+        <v>943</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>1145</v>
+        <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="C61" s="3">
-        <v>3.6135338935996332E-2</v>
+        <v>4.8202538754630868E-2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1147</v>
+        <v>1350</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>1151</v>
+        <v>1430</v>
       </c>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3">
+        <v>203.015164</v>
+      </c>
       <c r="J61" s="3">
-        <v>184.05950000000001</v>
-      </c>
-      <c r="K61" s="3">
-        <v>58</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M61" s="3">
-        <v>117.07899999999999</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>124.51949999999999</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>39</v>
+        <v>859</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C62" s="3">
-        <v>3.7382207172511978E-2</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="6" t="s">
-        <v>1433</v>
-      </c>
-      <c r="H62" s="3">
-        <v>118.02931</v>
-      </c>
-      <c r="I62" s="3">
-        <v>150.46866</v>
-      </c>
+        <v>2.1386309930186621E-2</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
+      <c r="K62" s="3">
+        <v>187.1087</v>
+      </c>
+      <c r="L62" s="3">
+        <v>127</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N62" s="3">
+        <v>188.11609999999999</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>1177</v>
+        <v>1114</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C63" s="3">
-        <v>3.7694706055845982E-2</v>
+        <v>3.510336077675618E-2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1180</v>
+        <v>1117</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>1178</v>
+        <v>1121</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3">
-        <v>135.04849999999999</v>
-      </c>
+      <c r="J63" s="3"/>
       <c r="K63" s="3">
-        <v>49</v>
-      </c>
-      <c r="L63" s="3" t="s">
+        <v>146.04589999999999</v>
+      </c>
+      <c r="L63" s="3">
         <v>184</v>
       </c>
-      <c r="M63" s="3">
-        <v>76.035200000000003</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>1179</v>
+      <c r="M63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N63" s="3">
+        <v>147.0532</v>
       </c>
       <c r="O63" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P63" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>1204</v>
+        <v>1087</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C64" s="3">
-        <v>3.856739978499979E-2</v>
+        <v>3.3997438877621723E-2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>1205</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>1212</v>
+        <v>1088</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="3">
-        <v>277.21690000000001</v>
-      </c>
+      <c r="J64" s="3"/>
       <c r="K64" s="3">
-        <v>200</v>
-      </c>
-      <c r="L64" s="3" t="s">
+        <v>101.0245</v>
+      </c>
+      <c r="L64" s="3">
+        <v>134</v>
+      </c>
+      <c r="M64" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M64" s="3">
-        <v>278.22460000000001</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>1206</v>
+      <c r="N64" s="3">
+        <v>102.0317</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>31</v>
+        <v>1089</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>1214</v>
       </c>
@@ -7594,438 +7696,466 @@
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3">
         <v>131.07140000000001</v>
       </c>
-      <c r="K65" s="3">
+      <c r="L65" s="3">
         <v>8</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M65" s="3">
+      <c r="N65" s="3">
         <v>132.07859999999999</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="O65" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="P65" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C66" s="3">
-        <v>3.8993362929226019E-2</v>
+        <v>2.9310483047734669E-2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>1223</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>1230</v>
+        <v>1001</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3">
-        <v>171.00559999999999</v>
-      </c>
+      <c r="J66" s="3"/>
       <c r="K66" s="3">
-        <v>287</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M66" s="3">
-        <v>169.99799999999999</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>1224</v>
+        <v>182.00960000000001</v>
+      </c>
+      <c r="L66" s="3">
+        <v>140</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N66" s="3">
+        <v>183.01679999999999</v>
       </c>
       <c r="O66" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P66" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>1232</v>
+        <v>466</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C67" s="3">
-        <v>3.9735637974157537E-2</v>
+        <v>5.4875389457743704E-3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1235</v>
+        <v>469</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>1239</v>
+        <v>467</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3">
-        <v>198.07480000000001</v>
-      </c>
+      <c r="J67" s="3"/>
       <c r="K67" s="3">
-        <v>58</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M67" s="3">
-        <v>131.09460000000001</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>1234</v>
+        <v>191.11789999999999</v>
+      </c>
+      <c r="L67" s="3">
+        <v>88</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" s="3">
+        <v>190.11060000000001</v>
       </c>
       <c r="O67" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="P67" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>1272</v>
+        <v>204</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C68" s="3">
-        <v>4.2918452172428713E-2</v>
+        <v>3.4100923828765439E-4</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1275</v>
+        <v>207</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>1273</v>
+        <v>211</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3">
-        <v>367.22449999999998</v>
-      </c>
+      <c r="J68" s="3"/>
       <c r="K68" s="3">
-        <v>249</v>
-      </c>
-      <c r="L68" s="3" t="s">
+        <v>214.99610000000001</v>
+      </c>
+      <c r="L68" s="3">
+        <v>53</v>
+      </c>
+      <c r="M68" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M68" s="3">
-        <v>368.23110000000003</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>1274</v>
+      <c r="N68" s="3">
+        <v>216.0035</v>
       </c>
       <c r="O68" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P68" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>1291</v>
+        <v>1137</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C69" s="3">
-        <v>4.4157548221427957E-2</v>
+        <v>3.5757111958394462E-2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1293</v>
+        <v>1140</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>1297</v>
+        <v>1138</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3">
-        <v>146.04589999999999</v>
-      </c>
+      <c r="J69" s="3"/>
       <c r="K69" s="3">
-        <v>58</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M69" s="3">
-        <v>147.0532</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>1116</v>
+        <v>130.0975</v>
+      </c>
+      <c r="L69" s="3">
+        <v>139</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N69" s="3">
+        <v>129.09020000000001</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>34</v>
+        <v>1139</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>40</v>
+        <v>722</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C70" s="3">
-        <v>4.4891421588492339E-2</v>
+        <v>1.6822931611723671E-2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1348</v>
+        <v>725</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H70" s="3">
-        <v>541.33337200000005</v>
-      </c>
-      <c r="I70" s="3">
-        <v>156.02025</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
+      <c r="K70" s="3">
+        <v>130.0652</v>
+      </c>
+      <c r="L70" s="3">
+        <v>155</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N70" s="3">
+        <v>146.08439999999999</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>138</v>
+        <v>532</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C71" s="3">
-        <v>4.691419051751626E-2</v>
+        <v>7.2763674414196271E-3</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E71" s="3"/>
+        <v>535</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>1422</v>
+        <v>541</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="3">
-        <v>124.039276</v>
-      </c>
+      <c r="J71" s="3"/>
       <c r="K71" s="3">
-        <v>66.034661999999997</v>
-      </c>
-      <c r="L71" s="3" t="s">
+        <v>188.09129999999999</v>
+      </c>
+      <c r="L71" s="3">
+        <v>76</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
+      <c r="N71" s="3">
+        <v>187.08449999999999</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>41</v>
+        <v>912</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C72" s="3">
-        <v>4.8202538754630868E-2</v>
+        <v>2.4381018990672219E-2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1350</v>
+        <v>915</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="H72" s="3">
-        <v>203.015164</v>
-      </c>
-      <c r="I72" s="3">
-        <v>124.51949999999999</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
+      <c r="K72" s="3">
+        <v>327.28980000000001</v>
+      </c>
+      <c r="L72" s="3">
+        <v>205</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N72" s="3">
+        <v>328.29770000000002</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>42</v>
+        <v>813</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C73" s="3">
-        <v>4.8372413029067307E-2</v>
-      </c>
-      <c r="D73" s="3"/>
+        <v>1.9821497736864251E-2</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>816</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="6" t="s">
-        <v>1434</v>
-      </c>
-      <c r="H73" s="3">
-        <v>344.27957600000002</v>
-      </c>
-      <c r="I73" s="3">
-        <v>57.995856000000003</v>
-      </c>
+      <c r="G73" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3" t="s">
+      <c r="K73" s="3">
+        <v>153.05459999999999</v>
+      </c>
+      <c r="L73" s="3">
+        <v>277</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
+      <c r="N73" s="3">
+        <v>152.04730000000001</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>1307</v>
+        <v>294</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C74" s="3">
-        <v>4.9091479923165357E-2</v>
+        <v>2.2595076928796031E-3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1310</v>
+        <v>298</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>1308</v>
+        <v>303</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3">
-        <v>227.1035</v>
-      </c>
+      <c r="J74" s="3"/>
       <c r="K74" s="3">
-        <v>55</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M74" s="3">
-        <v>168.0899</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>1309</v>
+        <v>87.0441</v>
+      </c>
+      <c r="L74" s="3">
+        <v>138</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N74" s="3">
+        <v>103.0633</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>31</v>
+        <v>297</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>1320</v>
+        <v>40</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="C75" s="3">
-        <v>4.9276037183637329E-2</v>
+        <v>4.4891421588492339E-2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>1321</v>
-      </c>
+        <v>1348</v>
+      </c>
+      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
-        <v>1329</v>
+        <v>1446</v>
       </c>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="I75" s="3">
+        <v>541.33337200000005</v>
+      </c>
       <c r="J75" s="3">
-        <v>294.09070000000003</v>
-      </c>
-      <c r="K75" s="3">
-        <v>52</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M75" s="3">
-        <v>293.08339999999998</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>156.02025</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>1331</v>
+        <v>949</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C76" s="3">
-        <v>4.9810445954234527E-2</v>
+        <v>2.6422931704385061E-2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>1332</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>1338</v>
+        <v>950</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="3">
-        <v>140.08179999999999</v>
-      </c>
+      <c r="J76" s="3"/>
       <c r="K76" s="3">
-        <v>288</v>
-      </c>
-      <c r="L76" s="3" t="s">
+        <v>585.27110000000005</v>
+      </c>
+      <c r="L76" s="3">
+        <v>74</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M76" s="3">
-        <v>139.0746</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>494</v>
+      <c r="N76" s="3">
+        <v>584.26350000000002</v>
       </c>
       <c r="O76" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="P76" s="3" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O76" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O76">
-      <sortCondition ref="F1:F76"/>
+  <autoFilter ref="A1:P76" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P76">
+      <sortCondition descending="1" ref="H1:H76"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
